--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>441301.0238021764</v>
+        <v>438862.5507024301</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.1714082000179</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>298.9787503760104</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>193.0439640562744</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>59.1574093068073</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734071385</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>44.95988304277479</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>267.8635071306609</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>323.6637250476214</v>
       </c>
       <c r="G5" t="n">
-        <v>121.0107198513682</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292601</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247586</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>129.1089485127723</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>122.4424591077288</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>124.2781875329267</v>
       </c>
       <c r="F8" t="n">
-        <v>205.921395844652</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>24.83054391530674</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.6293919502451742</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695709</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>55.52079624060558</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819354</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699837</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>120.4832454124075</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187888</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833905</v>
       </c>
       <c r="G19" t="n">
-        <v>103.168699193621</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H22" t="n">
-        <v>40.15381658332903</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2321,13 +2321,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>104.1233804225868</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699797</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428075</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637016</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.974488840437388</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,13 +3007,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>65.25773758188321</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1934.208022973022</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>563.5047572728752</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>261.5060195193293</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>261.5060195193293</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>261.5060195193293</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.7846764101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2902.029717514335</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2549.261062244221</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2175.795303983141</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2175.795303983141</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486466</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>843.9205694372849</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="C4" t="n">
-        <v>674.9843865093781</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>524.8677470970423</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>376.9546535146492</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>376.9546535146492</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>209.2518168893681</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.594608541189</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335302</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.910120335302</v>
+        <v>609.6550370402499</v>
       </c>
       <c r="X4" t="n">
-        <v>843.9205694372849</v>
+        <v>381.6654861422326</v>
       </c>
       <c r="Y4" t="n">
-        <v>843.9205694372849</v>
+        <v>381.6654861422326</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482646</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C5" t="n">
-        <v>1385.781921542234</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="D5" t="n">
-        <v>1027.516222935484</v>
+        <v>1148.098121342609</v>
       </c>
       <c r="E5" t="n">
-        <v>641.7279703372396</v>
+        <v>1148.098121342609</v>
       </c>
       <c r="F5" t="n">
-        <v>230.7420655476321</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546768</v>
+        <v>1892.963660013481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
         <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1071.910120335302</v>
+        <v>528.5554336401428</v>
       </c>
       <c r="C7" t="n">
-        <v>902.9739374073954</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4750,25 +4750,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.594608541189</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335302</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.910120335302</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="X7" t="n">
-        <v>1071.910120335302</v>
+        <v>652.2346852641114</v>
       </c>
       <c r="Y7" t="n">
-        <v>1071.910120335302</v>
+        <v>528.5554336401428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1458.811090838973</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1089.848573898562</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D8" t="n">
-        <v>731.5828752918112</v>
+        <v>953.6440892486864</v>
       </c>
       <c r="E8" t="n">
-        <v>731.5828752918112</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4817,13 +4817,13 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2609.016021139987</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2235.550262878907</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1845.410930903095</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,10 +4896,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>406.7468436324414</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="C10" t="n">
-        <v>237.8106607045345</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>67.1478658768755</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>67.1478658768755</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.594608541189</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.594608541189</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>809.1878876062112</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y10" t="n">
-        <v>588.3953084626811</v>
+        <v>396.7094242895083</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,43 +5027,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192613</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797193</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637309</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969296</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951537</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327661</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048592</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925235</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101303</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F13" t="n">
-        <v>149.89827541222</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>149.89827541222</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806536</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630058</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,46 +5264,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703773</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969296</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400736</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297736</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703772</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969295</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1889.844516861992</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.853600740073</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121661</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121661</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121661</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F19" t="n">
-        <v>198.0274703142558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138429</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703128</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061504</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616111</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459591</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180522</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>449.4852666057164</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>301.5721730233233</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F22" t="n">
-        <v>301.5721730233233</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G22" t="n">
-        <v>134.3760737382033</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817746</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919729</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761988</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191926</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349515</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061504</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.043492616111</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y25" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="26">
@@ -6218,13 +6218,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6242,31 +6242,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121634</v>
+        <v>197.0043242297695</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121634</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270434</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6476,34 +6476,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832249</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553181</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429824</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429824</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429824</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2441.938347377799</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2259.083513032703</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.482048055645</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1750.406821399842</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1495.722333193955</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1206.305163156995</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156995</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134647</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7163,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7260,16 +7260,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.738725912720952e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.595168441781425e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143.5624334634627</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>82.95161969625137</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.308789375334017e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.26526345294759</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>84.77391660561828</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294755</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>166.0397529241835</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.513749910243533e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.4467738245922</v>
       </c>
       <c r="G19" t="n">
-        <v>62.35543909864066</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856549</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.833200258261058e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H22" t="n">
-        <v>100.1408962628948</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393204</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>121.5862749664503</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295159</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194311</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.72409101823573</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>61.40075786968427</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>221.2652607547078</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>964576.4516873169</v>
+        <v>964576.4516873176</v>
       </c>
     </row>
     <row r="3">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1041920.737870017</v>
+        <v>1041920.737870016</v>
       </c>
     </row>
     <row r="11">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631192</v>
+        <v>354580.0968631197</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855342</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="F2" t="n">
         <v>383394.6348527531</v>
       </c>
       <c r="G2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="I2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="J2" t="n">
         <v>383394.634852753</v>
@@ -26344,16 +26344,16 @@
         <v>383394.6348527529</v>
       </c>
       <c r="M2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="O2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527528</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073563</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355121</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50238.95917052858</v>
+        <v>50238.9591705288</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319413</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26433,16 +26433,16 @@
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184271</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.8081118427</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.8081118427</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
@@ -26454,10 +26454,10 @@
         <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1132337.548596394</v>
+        <v>-1132523.941984934</v>
       </c>
       <c r="C6" t="n">
-        <v>189267.0572409469</v>
+        <v>189267.0572409474</v>
       </c>
       <c r="D6" t="n">
-        <v>189267.0572409469</v>
+        <v>189267.0572409467</v>
       </c>
       <c r="E6" t="n">
-        <v>-56747.16489035315</v>
+        <v>-56781.902815788</v>
       </c>
       <c r="F6" t="n">
-        <v>268665.2969170032</v>
+        <v>268630.5589915675</v>
       </c>
       <c r="G6" t="n">
-        <v>268665.2969170031</v>
+        <v>268630.5589915673</v>
       </c>
       <c r="H6" t="n">
-        <v>268665.2969170035</v>
+        <v>268630.5589915678</v>
       </c>
       <c r="I6" t="n">
-        <v>268665.2969170032</v>
+        <v>268630.5589915675</v>
       </c>
       <c r="J6" t="n">
-        <v>51134.0945197258</v>
+        <v>51099.35659428994</v>
       </c>
       <c r="K6" t="n">
-        <v>268665.2969170031</v>
+        <v>268630.5589915674</v>
       </c>
       <c r="L6" t="n">
-        <v>268665.2969170031</v>
+        <v>268630.5589915673</v>
       </c>
       <c r="M6" t="n">
-        <v>183610.2689814908</v>
+        <v>183575.5310560554</v>
       </c>
       <c r="N6" t="n">
-        <v>268665.296917003</v>
+        <v>268630.5589915673</v>
       </c>
       <c r="O6" t="n">
-        <v>268665.2969170033</v>
+        <v>268630.5589915673</v>
       </c>
       <c r="P6" t="n">
-        <v>268665.2969170031</v>
+        <v>268630.5589915673</v>
       </c>
     </row>
   </sheetData>
@@ -26750,7 +26750,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26805,16 +26805,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483766</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>101.563800331046</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>268.5948491633276</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>99.79513187154599</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>18.65949120593012</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>83.21232069409007</v>
       </c>
       <c r="G5" t="n">
-        <v>289.9110058020852</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>19.50652450544007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>96.14219424436595</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>257.6521825393351</v>
       </c>
       <c r="F8" t="n">
-        <v>200.9546498970594</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>123.7849291029056</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>165.396416308783</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.4716765429928e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.164165557090503e-12</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727241</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31923,31 +31923,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,28 +32081,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.285322933819</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>732.4825987614911</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32160,31 +32160,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338189</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862126</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.279049007179</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437247</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214701</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485293</v>
+        <v>344.9857809048109</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742442</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121572</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32789,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319844</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34448,10 +34448,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507058</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394479</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>590.3485648394727</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396423</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367775</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462694</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902954</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924731</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394467</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238457</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992803</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625077</v>
+        <v>205.0040068187893</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875399</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875399</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060442</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38096,10 +38096,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
